--- a/EuroSkills/Linux/1001002001-debian.xlsx
+++ b/EuroSkills/Linux/1001002001-debian.xlsx
@@ -878,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/EuroSkills/Linux/1001002001-debian.xlsx
+++ b/EuroSkills/Linux/1001002001-debian.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tasks" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="test" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelR1C1"/>
@@ -418,7 +418,7 @@
 @ IN A {{ slave_IP }}
 {{ master_hostname }} IN A {{ master_IP }}
 {{ slave_hostname }} IN A {{ slave_IP }}
-#/var/cache/bind/db.[[zone name]]</t>
+#/var/cache/bind/db.{{ zone_name }}</t>
   </si>
   <si>
     <t xml:space="preserve">cp /etc/bind/db.{{ domain }} /var/cache/bind/db.{{ reverse_domain }}</t>
@@ -432,7 +432,7 @@
 @ IN NS {{ slave_FQDN }}.
 {{ host_part_of_master_IP }} IN PTR {{ master_FQDN }}.
 {{ host_part_of_slave_IP }} IN PTR {{ slave_FQDN }}.
-#/var/cache/bind/db.[[zone name]]</t>
+#/var/cache/bind/db.{{ zone_name }}</t>
   </si>
   <si>
     <t xml:space="preserve">systemctl restart named
@@ -878,8 +878,8 @@
   </sheetPr>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/EuroSkills/Linux/1001002001-debian.xlsx
+++ b/EuroSkills/Linux/1001002001-debian.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="199">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Step 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general</t>
   </si>
   <si>
     <t xml:space="preserve">Configure an interface with a static IPv4 address.</t>
@@ -113,6 +116,9 @@
 systemctl enable networking</t>
   </si>
   <si>
+    <t xml:space="preserve">dhcp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configure a DHCP server.</t>
   </si>
   <si>
@@ -137,19 +143,46 @@
 #etc/default/isc-dhcp-server</t>
   </si>
   <si>
-    <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
 authoritative;
 subnet {{ IP }} netmask {{ mask }} {
 }
 subnet {{ IP }} netmask {{ mask }} {
-  range {{ first_IP }} {{ last_IP }};
   option domain-name-servers {{ IP }};
   option domain-name "{{ domain }}";
   option routers {{ IP }};
   default-lease-time {{ minutes }};
-  max-lease-time {{ minutes; }}
+  max-lease-time {{ minutes; }};
+  pool {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">range {{ first_IP }} {{ last_IP }};
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  }
 }
 #/etc/dhcp/dhcpd.conf</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">systemctl restart isc-dhcp-server
@@ -197,6 +230,9 @@
     <t xml:space="preserve">apt-cdrom add</t>
   </si>
   <si>
+    <t xml:space="preserve">ntp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configure Systemd's built in NTP client.</t>
   </si>
   <si>
@@ -244,6 +280,9 @@
 iface {{ interface}} inet dhcp
 ...
 #/etc/network/interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipv6</t>
   </si>
   <si>
     <t xml:space="preserve">Configure an interface with a static IPv6 address.</t>
@@ -322,6 +361,9 @@
   </si>
   <si>
     <t xml:space="preserve">sysctl -p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dns;dhcp</t>
   </si>
   <si>
     <t xml:space="preserve">Configure DDNS updates on a DHCP server.</t>
@@ -351,6 +393,9 @@
   </si>
   <si>
     <t xml:space="preserve">systemctl restart isc-dhcp-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dns</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a master DNS Server.</t>
@@ -439,6 +484,9 @@
 systemctl enable named</t>
   </si>
   <si>
+    <t xml:space="preserve">dns;mail</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add a MX resource record to a DNS server.</t>
   </si>
   <si>
@@ -526,6 +574,9 @@
 #/usr/share/dns/root.hints</t>
   </si>
   <si>
+    <t xml:space="preserve">nat</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configure PAT for all traffic exiting the public interface.</t>
   </si>
   <si>
@@ -539,6 +590,7 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/nftables.conf
+flush ruleset                                                                    
 ...
 table ip nat {
   chain prerouting {
@@ -566,6 +618,7 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/nftables.conf
+flush ruleset                                                                    
 ...
 table ip nat {
   chain prerouting {
@@ -589,6 +642,9 @@
     <t xml:space="preserve">python3 -m http.server</t>
   </si>
   <si>
+    <t xml:space="preserve">web</t>
+  </si>
+  <si>
     <t xml:space="preserve">Configure an apache web server for a HTTP webpage.</t>
   </si>
   <si>
@@ -682,6 +738,612 @@
   <si>
     <t xml:space="preserve">ip route list table all</t>
   </si>
+  <si>
+    <t xml:space="preserve">Configure the primary server of a DHCP failover cluster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCP is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
+...
+failover peer "{{ name }}" {
+   primary;
+   address {{ own_ip }};
+   peer address {{ secondary_ip }};
+   max-response-delay 60;
+   max-unacked-updates 10;
+   mclt 3600;
+   split 128;
+   load balance max seconds 3;
+}
+...
+subnet {{ IP }} netmask {{ mask }} {
+  ...
+  pool {
+    […]
+    failover peer "{{ name }}";
+  }
+}
+[…]
+#/etc/dhcp/dhcpd.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the secondary server of a DHCP failover cluster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
+...
+failover peer "{{ name }}" {
+   secondary;
+   address {{ own_ip }};
+   peer address {{ primary_ip }};
+   max-response-delay 60;
+   max-unacked-updates 10;
+   load balance max seconds 3;
+}
+...
+subnet {{ IP }} netmask {{ mask }} {
+  ...
+  pool {
+    […]
+    failover peer "{{ name }}";
+  }
+}
+[…]
+#/etc/dhcp/dhcpd.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a root CA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use openssl to accomplish this task.
+CDP and AIA extensions must not be used.
+Extensions requests in the CSR should be respected by the CA.
+At minimum CSRs must only include a CN to pass the policy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit /etc/ssl/openssl.cnf.
+Create required folders and files.
+Generate private key, certificate and CRL.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/ssl/openssl.cnf
+[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[ CA_default ]
+dir = {{ path }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">copy_extensions = copy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">policy = policy_anything
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+#/etc/ssl/openssl.cnf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mkdir -p {{ dir_path }}/{certs,crl,newcerts,private,requests}
+touch {{ dir_path }}/index.txt
+echo 1000 \&gt; {{ dir_path }}/serial
+echo 1000 \&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{{ dir_path }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/crlnumber
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openssl genrsa -out {{ dir_path }}/private/cakey.pem 4096
+openssl req -new -x509 -key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{{ dir_path }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/private/cakey.pem -out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{{ dir_path }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/cacert.pem -days {{ number }}
+openssl ca -gencrl -out </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{{ dir_path }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/crl.pem</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a CA to add AIA and CDP extensions to all certificates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use openssl to accomplish this task.
+The CA is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/ssl/openssl.cnf
+...
+[ usr_cert ]
+crlDistributionPoints = @crl_info
+authorityInfoAccess = @aia_info
+[…]
+[ v3_ca ]
+crlDistributionPoints = @crl_info
+authorityInfoAccess = @aia_info
+[…]
+[ crl_info ]
+URI.0 = {{ URI }}
+[ aia_info ]
+caIssuers;URI.0 = {{ URI }}
+#/etc/ssl/openssl.cnf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a signing request that includes two subject alternative names.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Openssl to accomplish this task.
+The CSR should additionally include country, organisation and common name information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openssl req -new -subj "/C={{ country_code }}/O={{ organization }}/CN={{ common_name }}" -addext "SubjectAltName=DNS:{{ fqdn1 }},DNS:{{ fqdn2 }}" -nodes -keyout {{ key_path }} -out {{ csr_path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a PKCS12 file from a certifcate and key.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use openssl to accomplish this task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openssl pkcs12 -export -in {{ cert_path }} -inkey {{ key_path }} -out {{ out_path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract the certificate from a PKCS12/PFX file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use openssl to accomplish this task. 
+The output should not be encrypted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openssl pkcs12 -in {{ pfx_path }} -out {{ cert_path }} -nodes -nokeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extract the key from a PKCS12/PFX file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openssl pkcs12 -in {{ pfx_path }} -out {{ key_path }} -nodes -nocerts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoke a certificate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openssl ca -revoke {{ cert_path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign a subordinate CA certificate.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">openssl ca -in {{ csr_path }} -out {{ cert_path }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> -extensions v3_ca</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign a client certificate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openssl ca -in {{ csr_path }} -out {{ cert_path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an ssh server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root should be allowed to log in with his password.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Install packages.
+Edit /etc/ssh/sshd_config
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Restart services.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install openssh-server</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/ssh/sshd_config
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+PermitRootLogin yes
+[...]
+#/etc/ssh/sshd_config</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl restart ssh
+systemctl enable ssh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an nftables table containing one chain for each filter hook.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The chains should be empty.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/nftables.conf
+...
+table inet {{ name }} {
+  chain {{ name }} {
+    type filter hook input priority filter;
+    Policy {{ “drop“ or “accept“ }};
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">chain my_forward {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type filter hook forward priority filter;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    policy {{ “drop“ or “accept“ }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hain {{ name }} {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">type filter hook output priority filter;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    policy {{ “drop“ or “accept“ }}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  }
+}
+...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/nftables.conf</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an nftables table containing one chain for each nat hook.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/nftables.conf
+...
+table ip {{ name }} {
+  chain {{ name }} {
+    type nat hook prerouting priority dstnat;
+  }
+  chain {{ name }} {
+    type nat hook postrouting priority srcnat;
+  }
+}
+...
+#/etc/nftables.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the default action for a nftables filter chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table and chains are already created.
+The answer is only the line or lines that must be added to the chain in /etc/nftables.conf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy {{ “accept“ or “drop“ }};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a nftables filter chain to allow traffic from localhost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iif lo accept;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a nftables filter chain to allow returning traffic that originated from the host.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ct state established,related accept;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a nftables filter chain to allow icmp traffic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meta l4proto icmp accept;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a nftables filter chain to allow ssh from a specific subnet traffic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip daddr {{ subnet }}/{{mask}} tcp dport ssh accept;</t>
+  </si>
 </sst>
 </file>
 
@@ -690,7 +1352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -718,6 +1380,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -774,7 +1441,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -796,6 +1463,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -876,16 +1555,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="68.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="73.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="92.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.85"/>
@@ -965,225 +1644,261 @@
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1191,316 +1906,357 @@
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1517,14 +2273,28 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+    <row r="28" s="5" customFormat="true" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1538,6 +2308,345 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="0"/>
+      <c r="F49" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/EuroSkills/Linux/1001002001-debian.xlsx
+++ b/EuroSkills/Linux/1001002001-debian.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="252">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -143,14 +143,7 @@
 #etc/default/isc-dhcp-server</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
+    <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
 authoritative;
 subnet {{ IP }} netmask {{ mask }} {
 }
@@ -161,28 +154,10 @@
   default-lease-time {{ minutes }};
   max-lease-time {{ minutes; }};
   pool {
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">range {{ first_IP }} {{ last_IP }};
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  }
+    range {{ first_IP }} {{ last_IP }};
+  }
 }
 #/etc/dhcp/dhcpd.conf</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">systemctl restart isc-dhcp-server
@@ -811,170 +786,28 @@
 Generate private key, certificate and CRL.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">#/etc/ssl/openssl.cnf
+    <t xml:space="preserve">#/etc/ssl/openssl.cnf
 […]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[ CA_default ]
+[ CA_default ]
 dir = {{ path }}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[…]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">copy_extensions = copy
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[…]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">policy = policy_anything
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[…]
+[…]
+copy_extensions = copy
+[…]
+policy = policy_anything
+[…]
 #/etc/ssl/openssl.cnf</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">mkdir -p {{ dir_path }}/{certs,crl,newcerts,private,requests}
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir -p {{ dir_path }}/{certs,crl,newcerts,private,requests}
 touch {{ dir_path }}/index.txt
 echo 1000 \&gt; {{ dir_path }}/serial
-echo 1000 \&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{{ dir_path }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/crlnumber
+echo 1000 \&gt; {{ dir_path }}/crlnumber
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">openssl genrsa -out {{ dir_path }}/private/cakey.pem 4096
-openssl req -new -x509 -key </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{{ dir_path }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/private/cakey.pem -out </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{{ dir_path }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/cacert.pem -days {{ number }}
-openssl ca -gencrl -out </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{{ dir_path }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/crl.pem</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">openssl genrsa -out {{ dir_path }}/private/cakey.pem 4096
+openssl req -new -x509 -key {{ dir_path }}/private/cakey.pem -out {{ dir_path }}/cacert.pem -days {{ number }}
+openssl ca -gencrl -out {{ dir_path }}/crl.pem</t>
   </si>
   <si>
     <t xml:space="preserve">Configure a CA to add AIA and CDP extensions to all certificates.</t>
@@ -1045,23 +878,7 @@
     <t xml:space="preserve">Sign a subordinate CA certificate.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">openssl ca -in {{ csr_path }} -out {{ cert_path }}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> -extensions v3_ca</t>
-    </r>
+    <t xml:space="preserve">openssl ca -in {{ csr_path }} -out {{ cert_path }} -extensions v3_ca</t>
   </si>
   <si>
     <t xml:space="preserve">Sign a client certificate.</t>
@@ -1079,51 +896,19 @@
     <t xml:space="preserve">Root should be allowed to log in with his password.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Install packages.
+    <t xml:space="preserve">Install packages.
 Edit /etc/ssh/sshd_config
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Restart services.</t>
-    </r>
+Restart services.</t>
   </si>
   <si>
     <t xml:space="preserve">apt install openssh-server</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#/etc/ssh/sshd_config
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[…]
+    <t xml:space="preserve">#/etc/ssh/sshd_config
+[…]
 PermitRootLogin yes
 [...]
 #/etc/ssh/sshd_config</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">systemctl restart ssh
@@ -1139,172 +924,20 @@
     <t xml:space="preserve">The chains should be empty.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#/etc/nftables.conf
+    <t xml:space="preserve">#/etc/nftables.conf
 ...
 table inet {{ name }} {
   chain {{ name }} {
     type filter hook input priority filter;
     Policy {{ “drop“ or “accept“ }};
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">chain my_forward {
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type filter hook forward priority filter;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    policy {{ “drop“ or “accept“ }}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hain {{ name }} {
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">type filter hook output priority filter;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    policy {{ “drop“ or “accept“ }}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  }
-}
-...
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">#/etc/nftables.conf</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Create an nftables table containing one chain for each nat hook.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#/etc/nftables.conf
-...
-table ip {{ name }} {
-  chain {{ name }} {
-    type nat hook prerouting priority dstnat;
+  }
+  chain my_forward {
+    type filter hook forward priority filter;
+    policy {{ “drop“ or “accept“ }}
   }
   chain {{ name }} {
-    type nat hook postrouting priority srcnat;
+    type filter hook output priority filter;
+    policy {{ “drop“ or “accept“ }}
   }
 }
 ...
@@ -1327,22 +960,228 @@
     <t xml:space="preserve">iif lo accept;</t>
   </si>
   <si>
-    <t xml:space="preserve">Configure a nftables filter chain to allow returning traffic that originated from the host.</t>
+    <t xml:space="preserve">Configure a nftables filter chain to allow return traffic.</t>
   </si>
   <si>
     <t xml:space="preserve">ct state established,related accept;</t>
   </si>
   <si>
-    <t xml:space="preserve">Configure a nftables filter chain to allow icmp traffic.</t>
+    <t xml:space="preserve">Configure a nftables filter chain to allow ICMP traffic.</t>
   </si>
   <si>
     <t xml:space="preserve">meta l4proto icmp accept;</t>
   </si>
   <si>
-    <t xml:space="preserve">Configure a nftables filter chain to allow ssh from a specific subnet traffic.</t>
+    <t xml:space="preserve">Configure a nftables filter chain to allow SSH traffic from a specific subnet.</t>
   </si>
   <si>
     <t xml:space="preserve">ip daddr {{ subnet }}/{{mask}} tcp dport ssh accept;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure GNOME as the desktop environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install gnome/stable
+reboot now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a four disk software raid 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The disk are all empty.
+The RAID should use XFS as filesystem.
+The RAID should be mounted at /share.
+/share existiert aktuell noch nicht.
+The RAID should be persistent across reboots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages.
+Prepare the first disk.
+Copy the first disk onto the other disks.
+Regenerate unique GUID.
+Create RAID.
+Create filesystem.
+Mount RAID.
+Save RAID configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install mdadm parted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">parted /dev/{{ first_disk }} mklabel gpt
+parted -a optimal -- /dev/{{ first_disk }} mkpart primary 2048s -8192s
+parted /dev/{{ first_disk }} set 1 raid on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgdisk /dev/{{ first_disk }} -R /dev/{{ second_disk }}
+sgdisk /dev/{{ first_disk }} -R /dev/{{ third_disk }}
+sgdisk /dev/{{ first_disk }} -R /dev/{{ forth_disk }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgdisk -G /dev/{{ second_disk }}
+sgdisk -G /dev/{{ third_disk }}
+sgdisk -G /dev/{{ forth_disk }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdadm --create /dev/md0 --auto md –level=5 --raid-devices=4 /dev/{{ first_disk }} /dev/{{ second_disk }} /dev/{{ third_disk }} /dev/{{ forth_disk }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkfs.xfs /dev/md0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir /share
+echo ‘/dev/md0 /share xfs defaults 0 0‘ &gt;&gt; /etc/fstab
+Mount -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdadm --examine --scan --verbose &gt;&gt; /etc/mdadm/mdadm.conf
+update-initramfs -u -k all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acl;nat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch from nftables back to iptables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iptables must manually be installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages
+Update references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install iptables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update-alternatives --set iptables /usr/sbin/iptables-legacy
+update-alternatives --set ip6tables /usr/sbin/ip6tables-legacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure the default policy for a default iptables chain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -P {{ “INPUT“ or “OUTPUT“ or “FORWARD“ or “PREROUTING“ or “POSTROUTING“ }} {{ “DROP“ or “ACCEPT“ or “REJECT“ }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an iptables rule to allow traffic from localhost to the localhost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -A INPUT -i lo -j ACCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an iptables rule to allow return traffic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -A INPUT -m state --state ESTABLISHED,RELATED -j ACCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an iptables rule to allow ICMP traffic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -A INPUT -p icmp -j ACCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an iptables rule to allow SSH traffic from a specific subnet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -A INPUT -p tcp -s {{ subnet }}/{{ mask }} --dport 22 -j ACCEPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make the current iptables rules persistent across reboots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages
+Save current rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install iptables-persistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables-save &gt; /etc/iptables/rules.v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iptables should be used to facilitate this task.
+Traffic destined for a private subnet should not be translated.
+The IPv4 Address of the outside interface should be configured statically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -t nat -A POSTROUTING -o {{ public_interface }} -j SNAT --to {{ public_ip }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iptables should be used to facilitate this task.
+The IPv4 Address of the outside interface should be configured statically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iptables -t nat -A PREROUTING -i {{ public_interface }} -p {{ protocol }} -d {{ external_ip }} --dport {{ external_port }} -j DNAT --to {{ internal_ip }}:{{ internal_port }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure an OpenLDAP server with LDAP Account Manager Web GUI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages.
+Restart and enable services.
+Perform basic web GUI configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install slapd ldap-utils ldap-account-manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+systemctl restart slapd
+systemctl enable --now slapd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Go to "http://{{ ip }}/lam"
+# Configure profile with username "lam" and password "lam"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apply an LDIF file to the LDAP server configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldapmodify -Y EXTERNAL -H ldapi:/// -f {{ path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query all LDAP domain objects on the server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldapsearch -Y EXTERNAL -H ldapi:/// -b "dc={{ domain }},dc={{ root_domain }}"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query current LDAP configuration on the server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldapsearch -Y EXTERNAL -H ldapi:/// -b "cn=config"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow only root and LDAP users to log in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit /etc/security/access.conf
+Edit /etc/pam.d/common-account
+Reboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/security/access.conf
+...
+-:ALL EXCEPT root ([{{ ldap_group }}]):ALL
+#/etc/security/access.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/pam.d/common-account
+account required pam_access.so
+…
+#/etc/pam.d/common-account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reboot now</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1468,14 +1307,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1555,10 +1386,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2348,7 +2179,7 @@
       <c r="E30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="3" t="s">
         <v>152</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -2371,7 +2202,7 @@
       <c r="D31" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2473,7 +2304,7 @@
       <c r="D37" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2513,7 +2344,7 @@
       <c r="F39" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="3" t="s">
         <v>180</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -2527,32 +2358,32 @@
       <c r="B40" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>187</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2563,12 +2394,12 @@
         <v>182</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2583,9 +2414,9 @@
         <v>191</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2600,9 +2431,9 @@
         <v>193</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F44" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2617,9 +2448,9 @@
         <v>195</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F45" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2628,26 +2459,306 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0"/>
+    <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="L48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0"/>
-      <c r="F49" s="0"/>
-    </row>
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="0"/>
+      <c r="E57" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" s="0"/>
+      <c r="E61" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/EuroSkills/Linux/1001002001-debian.xlsx
+++ b/EuroSkills/Linux/1001002001-debian.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="273">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -101,14 +101,14 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/network/interfaces
-...
+[…]
 auto {{ interface }}
 iface {{ interface}} inet static
   address {{ IP }}/{{ mask }}
   gateway {{ IP}}
   dns-domain {{ domain }}
   dns-nameserver {{ IP }}
-...
+[…]
 #/etc/network/interfaces</t>
   </si>
   <si>
@@ -137,9 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">#etc/default/isc-dhcp-server
-...
+[…]
 INTERFACESv4="{{ interface }}"
-...
+[…]
 #etc/default/isc-dhcp-server</t>
   </si>
   <si>
@@ -176,9 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/default/isc-dhcp-relay
-...
+[…]
 INTERFACESv4="{{ client_interface }} {{ server_interface }}"
-...
+[…]
 #/etc/default/isc-dhcp-relay</t>
   </si>
   <si>
@@ -220,10 +220,10 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/systemd/timesyncd.conf
-...
+[…]
 [Time]
 NTP={{ IP1 or FQDN1 }} {{ IP2 or FQDN2 }}
-...
+[…]
 #/etc/systemd/timesyncd.conf</t>
   </si>
   <si>
@@ -250,10 +250,10 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/network/interfaces
-...
+[…]
 auto {{ interface }}
 iface {{ interface}} inet dhcp
-...
+[…]
 #/etc/network/interfaces</t>
   </si>
   <si>
@@ -268,7 +268,7 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/network/interfaces
-...
+[…]
 auto {{ interface }}
 iface {{ interface}} inet6 static
   autoconf 0
@@ -276,7 +276,7 @@
   gateway {{ IP}}
   dns-domain {{ domain }}
   dns-nameserver {{ IP }}
-...
+[…]
 #/etc/network/interfaces</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/network/interfaces
-...
+[…]
 auto {{ interface }}
 iface {{ interface}} inet6 auto
   dns-domain {{ domain }}
   dns-nameserver {{ IP }}
-...
+[…]
 #/etc/network/interfaces</t>
   </si>
   <si>
@@ -306,19 +306,19 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/network/interfaces
-...
+[…]
 auto {{ interface }}
 iface {{ interface}} {{ protocol }} {{ method }}
   post-up {{ command }}
   post-down {{ command }}
-...
+[…]
 #/etc/network/interfaces</t>
   </si>
   <si>
     <t xml:space="preserve">Add or delete a temporary IPv4 static route.</t>
   </si>
   <si>
-    <t xml:space="preserve">ip route (( add or del )) {{ subnet }}/{{ mask }} via {{ IP }} dev {{ interface }}</t>
+    <t xml:space="preserve">ip route {{ “add“ or “del“ }} {{ subnet }}/{{ mask }} via {{ IP }} dev {{ interface }}</t>
   </si>
   <si>
     <t xml:space="preserve">Enable or disable IPv4 packet forwarding.</t>
@@ -329,9 +329,9 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/sysctl.conf
-...
-net.ipv4.ip_forwarding=(( 0 or 1 ))
-...
+[…]
+net.ipv4.ip_forwarding={{ “0“ or “1“  }}
+[…]
 #/etc/sysctl.conf</t>
   </si>
   <si>
@@ -354,7 +354,7 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
-...
+[…]
 ddns-update-style standard;
 ddns-updates on;
 zone {{ domain }}. {
@@ -363,7 +363,7 @@
 zone {{ reverse_domain }}. {
   primary {{ DNS_server_IP }};
 }
-...
+[…]
 #/etc/dhcp/dhcpd.conf</t>
   </si>
   <si>
@@ -383,7 +383,7 @@
 There is one slave DNS servers only this server should be allowed to query entire zones.
 Zone files should be copied and edited instead of being creating from scratch to save time and memory capacity.
 The named.conf file should not be edited directly but the included files should be instead.
-Zone files should be stored under /etc/cache/bind/db.{{ domain }}.</t>
+Zone files should be stored under /var/cache/bind/db.{{ domain }}.</t>
   </si>
   <si>
     <t xml:space="preserve">Install packages
@@ -466,7 +466,7 @@
   </si>
   <si>
     <t xml:space="preserve">The DNS server is already set up for basic operation.
-Zone files are stored under /etc/cache/bind/db.{{ domain }}.</t>
+Zone files are stored under /var/cache/bind/db.{{ domain }}.</t>
   </si>
   <si>
     <t xml:space="preserve">Edit /var/cache/bind/db.{{ domain }}
@@ -504,7 +504,7 @@
   <si>
     <t xml:space="preserve">#/etc/bind/named.conf.options
 options {
-  ...
+  […]
   recursion yes;
   forwarders {
     {{ IP }};
@@ -521,14 +521,14 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/bind/named.conf.local
-...
+[…]
 zone "{{ domain }}" {
-  ...  
+  […]  
   allow-update {
     {{ DHCP_server_IP }};
   };
 };
-...
+[…]
 #/etc/bind/named.conf.local</t>
   </si>
   <si>
@@ -566,7 +566,7 @@
   <si>
     <t xml:space="preserve">#/etc/nftables.conf
 flush ruleset                                                                    
-...
+[…]
 table ip nat {
   chain prerouting {
     type nat hook prerouting priority dstnat;
@@ -577,7 +577,7 @@
     meta oifname "{{ public_interface }}" snat to {{ public_IP }};
   }
 }
-...
+[…]
 #/etc/nftables.conf</t>
   </si>
   <si>
@@ -594,17 +594,17 @@
   <si>
     <t xml:space="preserve">#/etc/nftables.conf
 flush ruleset                                                                    
-...
+[…]
 table ip nat {
   chain prerouting {
     type nat hook prerouting priority dstnat;
-    meta iifname "{{ public_interface }}" ip daddr {{ public_IP }} ((udp or tcp)) dport {{ external_port }} dnat to {{ internal_IP }}:{{ internal_port }}
+    meta iifname "{{ public_interface }}" ip daddr {{ public_IP }} {{ “udp“ or “tcp“ }} dport {{ external_port }} dnat to {{ internal_IP }}:{{ internal_port }}
   }
   chain postrouting {
     type nat hook postrouting priority srcnat;
   }
 }
-...
+[…]
 #/etc/nftables.conf</t>
   </si>
   <si>
@@ -623,53 +623,42 @@
     <t xml:space="preserve">Configure an apache web server for a HTTP webpage.</t>
   </si>
   <si>
-    <t xml:space="preserve">The default apache webpage should be disabled.
-The default document root should not be used.
-The default apache index file should be used for the new webpage.
-Content should be served via HTTP using a non default port.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Install packages
-Edit /etc/apache/ports.conf
-Create /etc/apache/sites-available/{{ site_name }}.conf
-Create new document root directory
-Copy apache default index file to new document root
-Change ownership of new document root
-Disable apache default webpage
-Enable new webpage
+    <t xml:space="preserve">A new virtual host should be added to the default site.
+A new document root should be created for the virtual host.
+A new index.html file should be created for the virtual host.
+Content should be served via HTTP using the default port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages.
+Create document root directory.
+Change document root ownership.
+Create {{ document_root_path }}/index.html
+Edit /etc/apache2/000-default.conf
 Restart and enable services</t>
   </si>
   <si>
     <t xml:space="preserve">apt install apache2</t>
   </si>
   <si>
-    <t xml:space="preserve">#/etc/apache/ports.conf
-Listen {{ port }}
-...
-#/etc/apache/ports.conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#/etc/apache/sites-available/{{ site_name }}.conf
+    <t xml:space="preserve">mkdir {{ document_root_path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chown -R apache:apache {{ document_root_path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#{{ document_root_path }}/index.html
+&lt;html&gt;
+  {{ webpage_content }}
+&lt;/html&gt;
+#{{ document_root_path }}/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/apache2/sites-available/000-default.conf
 &lt;VirtualHost *:{{ port }}&gt;
   ServerName {{ site_FQDN }}
   DocumentRoot {{ document_root }}
 &lt;/VirtualHost&gt;
-#/etc/apache/sites-available/{{ site_name }}.conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkdir {{ document_root }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copy /var/apache/html/index.html {{ document_root }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chown -R apache:apache {{ document_root }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2dissite 000-default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a2ensite {{ site_name }}</t>
+#/etc/apache2/sites-available/000-default.conf</t>
   </si>
   <si>
     <t xml:space="preserve">systemctl restart apache2
@@ -679,35 +668,34 @@
     <t xml:space="preserve">Configure an apache web server for a HTTPS webpage.</t>
   </si>
   <si>
-    <t xml:space="preserve">The default apache SSL webpage configuration should be copied and modified to save time and memory capacity.
+    <t xml:space="preserve">Apache is already set up for HTTP operation.
+The default virtual host should be used.
 The default document root should be used.
-The default apache index file should used webpage.
+The default apache index file should used.
 Content should be served via HTTPS using the default port.</t>
   </si>
   <si>
-    <t xml:space="preserve">Install packages
-Copy /etc/apache/sites-available/default-ssl.conf to /etc/apache/sites-avaialble/{{ site_name }}.conf
-Edit /etc/apache/sites-avaialble/{{ site_name }}.conf
+    <t xml:space="preserve">Edit /etc/apache2/sites-avaialble/default-ssl.conf
 Enable apache modules
-Enable new webpage
+Enable default-ssl webpage
 Restart and enable services</t>
   </si>
   <si>
-    <t xml:space="preserve">cp /etc/apache2/sites-available/default-ssl.conf /etc/apache2/sites-available/{{ site_name }}.conf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#/etc/apache2/sites-available/{{ site_name }}.conf
-...
+    <t xml:space="preserve">#/etc/apache2/sites-available/default-ssl.conf
+[…]
   ServerName {{ site_FQDN }}
-  SSLCertificateFile {{ certificate }}
-  SSLCertificateKeyFile {{ private_key }}
-...
-#/etc/apache2/sites-available/{{ site_name }}.conf</t>
+  SSLCertificateFile {{ certificate_path }}
+  SSLCertificateKeyFile {{ key_path }}
+[…]
+#/etc/apache2/sites-available/default-ssl.conf</t>
   </si>
   <si>
     <t xml:space="preserve">a2enmod ssl</t>
   </si>
   <si>
+    <t xml:space="preserve">a2ensite default-ssl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Show all entries of all routing tables.</t>
   </si>
   <si>
@@ -720,21 +708,45 @@
     <t xml:space="preserve">DHCP is already set up for basic operation.</t>
   </si>
   <si>
-    <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
-...
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
+[…]
 failover peer "{{ name }}" {
    primary;
    address {{ own_ip }};
    peer address {{ secondary_ip }};
    max-response-delay 60;
    max-unacked-updates 10;
-   mclt 3600;
+   load balance max seconds 3;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   mclt 3600;
    split 128;
-   load balance max seconds 3;
-}
-...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}
+[…]
 subnet {{ IP }} netmask {{ mask }} {
-  ...
+  […]
   pool {
     […]
     failover peer "{{ name }}";
@@ -742,13 +754,14 @@
 }
 […]
 #/etc/dhcp/dhcpd.conf</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Configure the secondary server of a DHCP failover cluster.</t>
   </si>
   <si>
     <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
-...
+[…]
 failover peer "{{ name }}" {
    secondary;
    address {{ own_ip }};
@@ -757,9 +770,9 @@
    max-unacked-updates 10;
    load balance max seconds 3;
 }
-...
+[…]
 subnet {{ IP }} netmask {{ mask }} {
-  ...
+  […]
   pool {
     […]
     failover peer "{{ name }}";
@@ -800,8 +813,8 @@
   <si>
     <t xml:space="preserve">mkdir -p {{ dir_path }}/{certs,crl,newcerts,private,requests}
 touch {{ dir_path }}/index.txt
-echo 1000 \&gt; {{ dir_path }}/serial
-echo 1000 \&gt; {{ dir_path }}/crlnumber
+echo 1000 &gt; {{ dir_path }}/serial
+Echo 1000 &gt; {{ dir_path }}/crlnumber
 </t>
   </si>
   <si>
@@ -818,7 +831,7 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/ssl/openssl.cnf
-...
+[…]
 [ usr_cert ]
 crlDistributionPoints = @crl_info
 authorityInfoAccess = @aia_info
@@ -907,7 +920,7 @@
     <t xml:space="preserve">#/etc/ssh/sshd_config
 […]
 PermitRootLogin yes
-[...]
+[…]
 #/etc/ssh/sshd_config</t>
   </si>
   <si>
@@ -925,22 +938,19 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/nftables.conf
-...
-table inet {{ name }} {
+[…]
+table ip {{ name }} {
   chain {{ name }} {
     type filter hook input priority filter;
-    Policy {{ “drop“ or “accept“ }};
   }
   chain my_forward {
     type filter hook forward priority filter;
-    policy {{ “drop“ or “accept“ }}
   }
   chain {{ name }} {
     type filter hook output priority filter;
-    policy {{ “drop“ or “accept“ }}
   }
 }
-...
+[…]
 #/etc/nftables.conf</t>
   </si>
   <si>
@@ -975,7 +985,7 @@
     <t xml:space="preserve">Configure a nftables filter chain to allow SSH traffic from a specific subnet.</t>
   </si>
   <si>
-    <t xml:space="preserve">ip daddr {{ subnet }}/{{mask}} tcp dport ssh accept;</t>
+    <t xml:space="preserve">ip saddr {{ subnet }}/{{mask}} tcp dport ssh accept;</t>
   </si>
   <si>
     <t xml:space="preserve">Configure GNOME as the desktop environment.</t>
@@ -1034,7 +1044,7 @@
   <si>
     <t xml:space="preserve">mkdir /share
 echo ‘/dev/md0 /share xfs defaults 0 0‘ &gt;&gt; /etc/fstab
-Mount -a</t>
+mount -a</t>
   </si>
   <si>
     <t xml:space="preserve">mdadm --examine --scan --verbose &gt;&gt; /etc/mdadm/mdadm.conf
@@ -1088,7 +1098,32 @@
     <t xml:space="preserve">Configure an iptables rule to allow SSH traffic from a specific subnet.</t>
   </si>
   <si>
-    <t xml:space="preserve">iptables -A INPUT -p tcp -s {{ subnet }}/{{ mask }} --dport 22 -j ACCEPT</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iptables -A INPUT -s {{ subnet }}/{{ mask }} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-p tcp –</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dport 22 -j ACCEPT</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Make the current iptables rules persistent across reboots.</t>
@@ -1135,7 +1170,7 @@
   <si>
     <t xml:space="preserve">
 systemctl restart slapd
-systemctl enable --now slapd</t>
+systemctl enable slapd</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1170,7 +1205,7 @@
   </si>
   <si>
     <t xml:space="preserve">#/etc/security/access.conf
-...
+[…]
 -:ALL EXCEPT root ([{{ ldap_group }}]):ALL
 #/etc/security/access.conf</t>
   </si>
@@ -1182,6 +1217,112 @@
   </si>
   <si>
     <t xml:space="preserve">reboot now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the port for an exiting apache virtual host.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache is already set up for basic operation.
+No other virtual hosts exists that is listening on the same port.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit /etc/apache2/ports.conf
+Edit /etc/apache2/sites-available/000-default.conf
+Restart and enable services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/apache2/ports.conf
+Listen {{ port }}
+[…]
+#/etc/apache2/ports.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/apache2/sites-available/000-default.conf
+&lt;VirtualHost *:{{ port }}&gt;
+  […]
+&lt;/VirtualHost&gt;
+#/etc/apache2/sites-available/000-default.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web;ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure client certificate authentication for an apache web server serving HTTPS content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache is already set up for HTTPS opertaion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit /etc/apache2/sites-available/{{ site }}.conf.
+Restart and enable services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/apache2/sites-available/{{ website name }}.conf
+[…]
+SSLVerifyClient required
+SSLVerifyDepth {{ number }}
+SSLCACertificateFile {{ ca_certificate_path }}
+[…]
+#/etc/apache2/sites-available/{{ website name }}.conf
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a NFS server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One directory should be exposed.
+The exposed directory should contain a sub directory.
+The sub directory should be owned by the user with ID 1111.
+Only owner of the sub directory should have access to that directory.
+Both directories already exist but may not have the correct permissions set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages. 
+Set permissions for exposed directory.
+Set permissions for sub directory.
+Edit /etc/exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install nfs-kernel-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chown nobody:nogroup {{ exposed_directory_path }}
+chmod 755 {{ exposed_directory_path }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chown 1111:1111 {{ exposed_directory_path }}/{{ sub_directory }}
+chmod 700 {{ exposed_directory_path }}/{{ sub_directory }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/exports
+{{ exposed_direcectory_path }} {{ client_ip }}(rw, {{ additional_options }})
+#/etc/exports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl restart nfs-server
+systemctl enable nfs-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a NFS client.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The NFS share should automatically be mounted to /mnt/nfs.
+/mnt/nfs does not already exist..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages.
+Mount share.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install nfs-common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir /share
+echo ‘{{ nfs_server_ip }}:{{ exposed_directory_path }} /mnt/nfs defaults 0 0‘ &gt;&gt; /etc/fstab
+mount -a</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1303,10 +1444,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1386,10 +1523,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1400,7 +1537,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="45.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="59.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="54.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="42.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="44.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="45.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.53"/>
@@ -1995,7 +2132,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -2014,32 +2151,26 @@
       <c r="F25" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="N25" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -2047,34 +2178,30 @@
         <v>122</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="H26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -2082,29 +2209,14 @@
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" s="5" customFormat="true" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -2112,33 +2224,20 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -2148,79 +2247,106 @@
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>76</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="5" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="F30" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" s="5" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>156</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="E31" s="1"/>
       <c r="F31" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,16 +2354,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,16 +2371,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2262,16 +2388,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,16 +2405,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2296,16 +2422,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2313,16 +2439,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2330,42 +2456,42 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="G40" s="4"/>
     </row>
@@ -2374,16 +2500,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2391,16 +2517,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,16 +2534,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,16 +2551,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,16 +2568,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,10 +2588,10 @@
         <v>20</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2473,40 +2599,40 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="F47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="I47" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="J47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="K47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="M47" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,22 +2640,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="G48" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="L48" s="4"/>
     </row>
@@ -2538,15 +2664,15 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2561,13 +2687,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2575,13 +2701,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2589,13 +2715,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,13 +2729,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2617,20 +2743,20 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,10 +2770,10 @@
         <v>111</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2661,10 +2787,10 @@
         <v>116</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2672,23 +2798,23 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="G57" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D57" s="0"/>
-      <c r="E57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,13 +2822,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,13 +2836,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,13 +2850,13 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2738,27 +2864,141 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D61" s="0"/>
-      <c r="E61" s="3" t="s">
+      <c r="H61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" s="3" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="E62" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F62" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/EuroSkills/Linux/1001002001-debian.xlsx
+++ b/EuroSkills/Linux/1001002001-debian.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="323">
   <si>
     <t xml:space="preserve">Identifier</t>
   </si>
@@ -643,7 +643,7 @@
     <t xml:space="preserve">mkdir {{ document_root_path }}</t>
   </si>
   <si>
-    <t xml:space="preserve">chown -R apache:apache {{ document_root_path }}</t>
+    <t xml:space="preserve">chown apache:apache {{ document_root_path }}</t>
   </si>
   <si>
     <t xml:space="preserve">#{{ document_root_path }}/index.html
@@ -653,12 +653,56 @@
 #{{ document_root_path }}/index.html</t>
   </si>
   <si>
-    <t xml:space="preserve">#/etc/apache2/sites-available/000-default.conf
-&lt;VirtualHost *:{{ port }}&gt;
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/apache2/sites-available/000-default.conf
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;VirtualHost *:{{ port }}&gt;
   ServerName {{ site_FQDN }}
   DocumentRoot {{ document_root }}
 &lt;/VirtualHost&gt;
-#/etc/apache2/sites-available/000-default.conf</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/apache2/sites-available/000-default.conf</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">systemctl restart apache2
@@ -708,14 +752,7 @@
     <t xml:space="preserve">DHCP is already set up for basic operation.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
+    <t xml:space="preserve">#/etc/dhcp/dhcpd.conf
 […]
 failover peer "{{ name }}" {
    primary;
@@ -724,26 +761,9 @@
    max-response-delay 60;
    max-unacked-updates 10;
    load balance max seconds 3;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   mclt 3600;
+   mclt 3600;
    split 128;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">}
+}
 […]
 subnet {{ IP }} netmask {{ mask }} {
   […]
@@ -754,7 +774,6 @@
 }
 […]
 #/etc/dhcp/dhcpd.conf</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Configure the secondary server of a DHCP failover cluster.</t>
@@ -811,11 +830,53 @@
 #/etc/ssl/openssl.cnf</t>
   </si>
   <si>
-    <t xml:space="preserve">mkdir -p {{ dir_path }}/{certs,crl,newcerts,private,requests}
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mkdir -p {{ dir_path }}/{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">requests,private,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">certs,newcerts,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">crl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">}
 touch {{ dir_path }}/index.txt
 echo 1000 &gt; {{ dir_path }}/serial
 Echo 1000 &gt; {{ dir_path }}/crlnumber
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">openssl genrsa -out {{ dir_path }}/private/cakey.pem 4096
@@ -873,13 +934,54 @@
 The output should not be encrypted.</t>
   </si>
   <si>
-    <t xml:space="preserve">openssl pkcs12 -in {{ pfx_path }} -out {{ cert_path }} -nodes -nokeys</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openssl pkcs12 -in {{ pfx_path }} -nodes -nokeys </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-out {{ cert_path }}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Extract the key from a PKCS12/PFX file.</t>
   </si>
   <si>
-    <t xml:space="preserve">openssl pkcs12 -in {{ pfx_path }} -out {{ key_path }} -nodes -nocerts</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openssl pkcs12 -in {{ pfx_path }} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-nodes -nocerts </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-out {{ key_path }}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Revoke a certificate.</t>
@@ -891,7 +993,32 @@
     <t xml:space="preserve">Sign a subordinate CA certificate.</t>
   </si>
   <si>
-    <t xml:space="preserve">openssl ca -in {{ csr_path }} -out {{ cert_path }} -extensions v3_ca</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">openssl ca -in {{ csr_path }} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-extensions v3_ca </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-out {{ cert_path }}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Sign a client certificate.</t>
@@ -937,13 +1064,37 @@
     <t xml:space="preserve">The chains should be empty.</t>
   </si>
   <si>
-    <t xml:space="preserve">#/etc/nftables.conf
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/nftables.conf
 […]
 table ip {{ name }} {
   chain {{ name }} {
     type filter hook input priority filter;
   }
-  chain my_forward {
+  chain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{{ name }}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> {
     type filter hook forward priority filter;
   }
   chain {{ name }} {
@@ -952,6 +1103,7 @@
 }
 […]
 #/etc/nftables.conf</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Configure the default action for a nftables filter chain.</t>
@@ -991,7 +1143,7 @@
     <t xml:space="preserve">Configure GNOME as the desktop environment.</t>
   </si>
   <si>
-    <t xml:space="preserve">apt install gnome/stable
+    <t xml:space="preserve">apt install gnome
 reboot now</t>
   </si>
   <si>
@@ -1002,10 +1154,11 @@
   </si>
   <si>
     <t xml:space="preserve">The disk are all empty.
-The RAID should use XFS as filesystem.
+The RAID should use EXT4 as filesystem.
 The RAID should be mounted at /share.
-/share existiert aktuell noch nicht.
-The RAID should be persistent across reboots.</t>
+/share does not exist.
+The RAID should be persistent across reboots.
+The UUID should be used for mounting.</t>
   </si>
   <si>
     <t xml:space="preserve">Install packages.
@@ -1018,7 +1171,7 @@
 Save RAID configuration.</t>
   </si>
   <si>
-    <t xml:space="preserve">apt install mdadm parted </t>
+    <t xml:space="preserve">apt install mdadm parted gdisk</t>
   </si>
   <si>
     <t xml:space="preserve">parted /dev/{{ first_disk }} mklabel gpt
@@ -1036,14 +1189,14 @@
 sgdisk -G /dev/{{ forth_disk }}</t>
   </si>
   <si>
-    <t xml:space="preserve">mdadm --create /dev/md0 --auto md –level=5 --raid-devices=4 /dev/{{ first_disk }} /dev/{{ second_disk }} /dev/{{ third_disk }} /dev/{{ forth_disk }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkfs.xfs /dev/md0 </t>
+    <t xml:space="preserve">mdadm --create /dev/md0 --auto md --level=5 --raid-devices=4 /dev/{{ first_disk }}1 /dev/{{ second_disk }}1 /dev/{{ third_disk }}1 /dev/{{ forth_disk }}1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkfs.ext4 /dev/md0 </t>
   </si>
   <si>
     <t xml:space="preserve">mkdir /share
-echo ‘/dev/md0 /share xfs defaults 0 0‘ &gt;&gt; /etc/fstab
+echo ‘UUID={{ UUID }} /share ext4 defaults 0 0‘ &gt;&gt; /etc/fstab
 mount -a</t>
   </si>
   <si>
@@ -1105,15 +1258,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">iptables -A INPUT -s {{ subnet }}/{{ mask }} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-p tcp –</t>
+      <t xml:space="preserve">iptables -A INPUT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1122,7 +1275,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">dport 22 -j ACCEPT</t>
+      <t xml:space="preserve">-s {{ subnet }}/{{ mask }} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-p tcp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">–dport 22 -j ACCEPT</t>
     </r>
   </si>
   <si>
@@ -1151,7 +1321,32 @@
 The IPv4 Address of the outside interface should be configured statically.</t>
   </si>
   <si>
-    <t xml:space="preserve">iptables -t nat -A PREROUTING -i {{ public_interface }} -p {{ protocol }} -d {{ external_ip }} --dport {{ external_port }} -j DNAT --to {{ internal_ip }}:{{ internal_port }}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">iptables -t nat -A PREROUTING -i {{ public_interface }}  -d {{ external_ip }} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-p {{ protocol }} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">--dport {{ external_port }} -j DNAT --to {{ internal_ip }}:{{ internal_port }}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ldap</t>
@@ -1161,21 +1356,65 @@
   </si>
   <si>
     <t xml:space="preserve">Install packages.
-Restart and enable services.
-Perform basic web GUI configuration.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apt install slapd ldap-utils ldap-account-manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-systemctl restart slapd
-systemctl enable slapd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
+Configure ldap.
+Navigate to LAM server profile web UI.
+Configure general settings.
+Configure account types.
+Configure modules.
+Configure module settings.
+Log in as admin user.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">apt install slapd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ldap-utils ldap-account-manager</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dpkg-reconfigure slapd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Open browser
 # Go to "http://{{ ip }}/lam"
-# Configure profile with username "lam" and password "lam"</t>
+# Go to „lam configuration“ → „edit server profile“
+# Use „lam“ as profile name and password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Navigate to „general settings“.
+# Set timezone.
+# Set tree suffix.
+# Set valid users.
+# Set profile password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Navigate to „account types“.
+# Set required OUs for users and groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Navigate to „modules“.
+# Activate the required modules for each all account types.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Navigate to „module settings“.
+# Configure modules for each account type (E.g. set min and max UID/GID values)
+# Save the profile configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Log in as admin LDAP user.
+# If prompted, create missing OUs in LDAP</t>
   </si>
   <si>
     <t xml:space="preserve">Apply an LDIF file to the LDAP server configuration.</t>
@@ -1226,9 +1465,34 @@
 No other virtual hosts exists that is listening on the same port.</t>
   </si>
   <si>
-    <t xml:space="preserve">Edit /etc/apache2/ports.conf
-Edit /etc/apache2/sites-available/000-default.conf
-Restart and enable services</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Edit /etc/apache2/ports.conf
+Edit /etc/apache2/sites-available/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{{ site_name }}.conf
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Restart and enable services</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">#/etc/apache2/ports.conf
@@ -1237,11 +1501,63 @@
 #/etc/apache2/ports.conf</t>
   </si>
   <si>
-    <t xml:space="preserve">#/etc/apache2/sites-available/000-default.conf
-&lt;VirtualHost *:{{ port }}&gt;
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/apache2/sites-available/{{ site_name }}.conf
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;VirtualHost *:{{ port }}&gt;
   […]
 &lt;/VirtualHost&gt;
-#/etc/apache2/sites-available/000-default.conf</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/apache2/sites-available/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{{ site_name }}.conf</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">web;ca</t>
@@ -1273,17 +1589,13 @@
     <t xml:space="preserve">Configure a NFS server.</t>
   </si>
   <si>
-    <t xml:space="preserve">One directory should be exposed.
-The exposed directory should contain a sub directory.
-The sub directory should be owned by the user with ID 1111.
-Only owner of the sub directory should have access to that directory.
-Both directories already exist but may not have the correct permissions set.</t>
+    <t xml:space="preserve">One directory should be exposed.</t>
   </si>
   <si>
     <t xml:space="preserve">Install packages. 
 Set permissions for exposed directory.
-Set permissions for sub directory.
-Edit /etc/exports</t>
+Edit /etc/exports
+Restart services</t>
   </si>
   <si>
     <t xml:space="preserve">apt install nfs-kernel-server</t>
@@ -1291,10 +1603,6 @@
   <si>
     <t xml:space="preserve">chown nobody:nogroup {{ exposed_directory_path }}
 chmod 755 {{ exposed_directory_path }}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chown 1111:1111 {{ exposed_directory_path }}/{{ sub_directory }}
-chmod 700 {{ exposed_directory_path }}/{{ sub_directory }}</t>
   </si>
   <si>
     <t xml:space="preserve">#/etc/exports
@@ -1320,9 +1628,244 @@
     <t xml:space="preserve">apt install nfs-common</t>
   </si>
   <si>
-    <t xml:space="preserve">mkdir /share
-echo ‘{{ nfs_server_ip }}:{{ exposed_directory_path }} /mnt/nfs defaults 0 0‘ &gt;&gt; /etc/fstab
+    <t xml:space="preserve">mkdir /mnt/nfs
+echo ‘{{ nfs_server_ip }}:{{ exposed_directory_path }} /mnt/nfs nfs defaults 0 0‘ &gt;&gt; /etc/fstab
 mount -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure login via ldap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSSD should be used for this task.
+The server is listening on the default port.
+TLS should not be used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages
+Edit /etc/sssd/sssd.conf
+Set permissions for /etc/sssd/sssd.conf
+Reboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install sssd sssd-tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/sssd/sssd.conf
+domain = LDAP
+[domain/LDAP]
+id_providier = ldap
+auth_providier = ldap
+ldap_auth_disable_tls_never_use_in_production = true
+ldap_uri = ldap://{{ ip or fqdn }}
+ldap_search_base = dc={{ sub_domain }},dc= {{ root_domain }}
+#/etc/sssd/sssd.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chmod 600 /etc/sssd/sssd.conf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the ldap client configuration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The initial setup has already been done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpkg-reconfigure ldap-auth-config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the UUID of a block device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blkid /dev/{{ name }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the configuration of sssd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sssd-tools package is already installed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sssctl config-check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure credential caching for ldap client login.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSSD is already set up for basic operation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit /etc/sssd/sssd.conf
+Restart services</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/sssd/sssd.conf
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[domain/{{ domain }}]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">cache_credentials = true
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[…]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">#/etc/sssd/sssd.conf</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl restart sssd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure root to be the only local user account that is able to log in.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use PAM for this task.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit /etc/pam.d/common-auth
+Reboot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#/etc/pam.d/common-auth
+auth [success=1   default=ignore] pam_succeed_if.so uid = 0 quiet       
+auth [success=die default=ignore] pam_localuser.so
+[…]
+#/etc/pam.d/common-auth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a basic mail server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The server should provide MTA (SMTP) and MDA (IMAP) services.
+Postfix and Dovecot should be used to accomblish this task.
+The FQDN is already set as the hostname of the server.
+DNS is already set up for basic operation and includes a MX record.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages
+Configure postfix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install postfix dovecot-imapd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpkg-reconfigure postfix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure a certificate as trusted root certificate for all users.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cp {{ cert }} /etc/ssl/certs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snmp;syslog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure cacti for snmp monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages.
+Log into website.
+Create device.
+Add new graphs.
+Remove unused graphs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install cacti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># go to http://{{ ip or fqdn }}/cacti
+# log in with username „admin“ and the password set at install.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Add the devices under „Create“ → „New Device“</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Add the graphs under „Create“ → „New Graphs“</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Remove unused graphs at „Management“ → „Graphs“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure SNMPv3 for read only access with authentication and encryption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install packages
+Stop snmpd
+Create missing directory
+Create user
+Restart services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apt install snmp snmpd libsnmp-dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl stop snmpd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">net-snmp-create-snmpv3-user -ro -a {{ hashing_algorithm}} -A {{ authentication_password }} -x {{ encryption_algorithm }} -X {{ encryption_password }} {{ username }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systemctl restart snmpd</t>
   </si>
 </sst>
 </file>
@@ -1523,10 +2066,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:XFD75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2132,7 +2675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -2793,7 +3336,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -2807,14 +3350,29 @@
       <c r="E57" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="4" t="s">
         <v>236</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>237</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,10 +3383,10 @@
         <v>232</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,10 +3397,10 @@
         <v>232</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2853,10 +3411,10 @@
         <v>232</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2867,24 +3425,24 @@
         <v>232</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" s="3" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="3" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -2892,19 +3450,19 @@
         <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>131</v>
@@ -2926,77 +3484,295 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+      <c r="J64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="XFD74" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
